--- a/outputs-HGR-r202-archive/g__Ruminococcus_E.xlsx
+++ b/outputs-HGR-r202-archive/g__Ruminococcus_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,143 +489,143 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10181.fa</t>
+          <t>even_MAG-GUT19064.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.084043354106541e-06</v>
+        <v>0.157455820989508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002242568158115873</v>
+        <v>0.04463172596312393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001314866747054317</v>
+        <v>0.372028596832302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03324367203413854</v>
+        <v>0.4257694103122119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631749054501509</v>
+        <v>2.368939820015624e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.19035671861628e-05</v>
+        <v>0.0001144459028304393</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9631749054501509</v>
+        <v>0.4257694103122119</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900314705</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900314705</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12644.fa</t>
+          <t>even_MAG-GUT66514.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4196108683524168</v>
+        <v>0.1720963799519475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03394903804947152</v>
+        <v>0.05157950379603708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06194761821930182</v>
+        <v>0.1739282026992979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1667826482794344</v>
+        <v>0.6022480804355793</v>
       </c>
       <c r="F3" t="n">
-        <v>2.24465856941181e-14</v>
+        <v>2.626164731870443e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.317709827099353</v>
+        <v>0.0001478331171119318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4196108683524168</v>
+        <v>0.6022480804355793</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii(reject)</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13230.fa</t>
+          <t>even_MAG-GUT70172.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.754861604279921e-06</v>
+        <v>0.1260896266932558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002208515755360197</v>
+        <v>0.04785991039101198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008856196981422796</v>
+        <v>0.07713366697864157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03478253729242325</v>
+        <v>0.7487339168505308</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9621106963145698</v>
+        <v>2.432318429210543e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.087607790029551e-05</v>
+        <v>0.0001828790865352795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9621106963145698</v>
+        <v>0.7487339168505308</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900314705</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900314705</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19064.fa</t>
+          <t>even_MAG-GUT77386.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.157455820989508</v>
+        <v>0.2007532304936532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04463172596312393</v>
+        <v>0.04189379043748805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372028596832302</v>
+        <v>0.1776523076413351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4257694103122119</v>
+        <v>0.5796977573432412</v>
       </c>
       <c r="F5" t="n">
-        <v>2.368939820015624e-14</v>
+        <v>2.230582124066985e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001144459028304393</v>
+        <v>2.914084260141383e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4257694103122119</v>
+        <v>0.5796977573432412</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -633,310 +633,6 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT19459.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8.367752488503426e-07</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.00206974926836036</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0003914255652410451</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.06891316762866548</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9286147165182669</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.010424421740922e-05</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9286147165182669</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44261.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.001947470947510033</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05875548887037977</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06670673525111322</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5873559597085353</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2852239233170172</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.042190544461107e-05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5873559597085353</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44484.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.854714396567007e-06</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002534073858259329</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001699518974636581</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.03809721259470195</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9576460214367044</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.731842130106204e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9576460214367044</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT55810.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.234595258498819e-07</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002328801131637014</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0005888935977282353</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04219771476711076</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9548491657097636</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.510133423441515e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9548491657097636</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66514.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1720963799519475</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05157950379603708</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1739282026992979</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6022480804355793</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.626164731870443e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0001478331171119318</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.6022480804355793</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66714.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2489430196849724</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03954347487272327</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1644080132850019</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5471017942721301</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.238119297586892e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.697885150048742e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5471017942721301</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70172.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1260896266932558</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04785991039101198</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.07713366697864157</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7487339168505308</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.432318429210543e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0001828790865352795</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7487339168505308</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77386.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2007532304936532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04189379043748805</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1776523076413351</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5796977573432412</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.230582124066985e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.914084260141383e-06</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5796977573432412</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
